--- a/model/results/mix5_ggpos_h2pos/v_demand.xlsx
+++ b/model/results/mix5_ggpos_h2pos/v_demand.xlsx
@@ -1595,7 +1595,7 @@
         <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
-        <v>5370027.515873013</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1774805.817460318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C3" t="n">
         <v>7144833.333333331</v>
@@ -1642,10 +1642,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333331</v>
+        <v>5919573.88500355</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1225259.448329781</v>
       </c>
     </row>
     <row r="5">
@@ -1667,13 +1667,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>342616.9444444444</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1692,13 +1692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407407</v>
+        <v>186885.2667219458</v>
       </c>
       <c r="C6" t="n">
-        <v>2186916.666666666</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1401639.500414593</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>280327.9000829186</v>
       </c>
     </row>
     <row r="7">
@@ -1795,7 +1795,7 @@
         <v>1603197.619047619</v>
       </c>
       <c r="C10" t="n">
-        <v>351135.7142857141</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>10738.09523809523</v>
@@ -1807,7 +1807,7 @@
         <v>1310047.619047619</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>351135.7142857141</v>
       </c>
     </row>
     <row r="11">
@@ -1945,7 +1945,7 @@
         <v>1282558.095238095</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>280908.5714285712</v>
       </c>
       <c r="D16" t="n">
         <v>8590.476190476187</v>
@@ -1957,7 +1957,7 @@
         <v>1048038.095238095</v>
       </c>
       <c r="G16" t="n">
-        <v>280908.5714285712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2045,10 +2045,10 @@
         <v>16031.97619047619</v>
       </c>
       <c r="C20" t="n">
-        <v>3511.357142857141</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>107.3809523809526</v>
+        <v>107.3809523809523</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>13100.47619047619</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3511.357142857141</v>
       </c>
     </row>
     <row r="21">
@@ -2145,7 +2145,7 @@
         <v>705406.9523809523</v>
       </c>
       <c r="C24" t="n">
-        <v>154499.7142857142</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>4724.761904761903</v>
@@ -2157,7 +2157,7 @@
         <v>576420.9523809523</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>154499.7142857142</v>
       </c>
     </row>
     <row r="25">
@@ -2170,7 +2170,7 @@
         <v>593183.1190476191</v>
       </c>
       <c r="C25" t="n">
-        <v>129920.2142857142</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>3973.095238095237</v>
@@ -2182,7 +2182,7 @@
         <v>484717.619047619</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>129920.2142857142</v>
       </c>
     </row>
     <row r="26">
@@ -2220,10 +2220,10 @@
         <v>1603.197619047619</v>
       </c>
       <c r="C27" t="n">
-        <v>351.1357142857141</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>10.73809523809526</v>
+        <v>10.73809523809523</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2232,7 +2232,7 @@
         <v>1310.047619047619</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>351.1357142857141</v>
       </c>
     </row>
     <row r="28">
@@ -2242,13 +2242,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8015.988095238103</v>
+        <v>8015.988095238095</v>
       </c>
       <c r="C28" t="n">
-        <v>1755.678571428572</v>
+        <v>1755.67857142857</v>
       </c>
       <c r="D28" t="n">
-        <v>53.69047619047632</v>
+        <v>53.69047619047617</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>48095.92857142857</v>
       </c>
       <c r="C30" t="n">
-        <v>10534.07142857142</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>322.142857142857</v>
@@ -2307,7 +2307,7 @@
         <v>39301.42857142857</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>10534.07142857142</v>
       </c>
     </row>
     <row r="31">
@@ -2320,7 +2320,7 @@
         <v>432863.3571428571</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>94806.64285714281</v>
       </c>
       <c r="D31" t="n">
         <v>2899.285714285713</v>
@@ -2332,7 +2332,7 @@
         <v>353712.8571428571</v>
       </c>
       <c r="G31" t="n">
-        <v>94806.64285714281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2345,7 +2345,7 @@
         <v>96191.85714285713</v>
       </c>
       <c r="C32" t="n">
-        <v>21068.14285714284</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>644.285714285714</v>
@@ -2357,7 +2357,7 @@
         <v>78602.85714285713</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>21068.14285714284</v>
       </c>
     </row>
     <row r="33">
@@ -2495,7 +2495,7 @@
         <v>187288.8888888889</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="D38" t="n">
         <v>173911.1111111111</v>
@@ -2507,7 +2507,7 @@
         <v>802666.6666666666</v>
       </c>
       <c r="G38" t="n">
-        <v>173911.1111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2570,7 +2570,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>73912.22222222223</v>
@@ -2582,7 +2582,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
     <row r="42">
@@ -2620,7 +2620,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C43" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>73912.22222222223</v>
@@ -2632,7 +2632,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
   </sheetData>
@@ -2718,22 +2718,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703779</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C3" t="n">
-        <v>7144833.333333294</v>
+        <v>2665635.281828948</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.747401595115663e-08</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4479198.051504384</v>
       </c>
     </row>
     <row r="4">
@@ -2746,7 +2746,7 @@
         <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
-        <v>175221.984126982</v>
+        <v>7144833.333333333</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6969611.34920635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2768,13 +2768,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>342616.9444444444</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2793,13 +2793,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407407</v>
+        <v>186885.2667219458</v>
       </c>
       <c r="C6" t="n">
-        <v>2186916.666666666</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1401639.500414593</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2808,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>280327.9000829186</v>
       </c>
     </row>
     <row r="7">
@@ -2896,7 +2896,7 @@
         <v>1603197.619047619</v>
       </c>
       <c r="C10" t="n">
-        <v>351135.7142857141</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>10738.09523809523</v>
@@ -2908,7 +2908,7 @@
         <v>1310047.619047619</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>351135.7142857141</v>
       </c>
     </row>
     <row r="11">
@@ -2921,7 +2921,7 @@
         <v>256511.619047619</v>
       </c>
       <c r="C11" t="n">
-        <v>56181.71428571425</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1718.095238095237</v>
@@ -2933,7 +2933,7 @@
         <v>209607.619047619</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>56181.71428571425</v>
       </c>
     </row>
     <row r="12">
@@ -2946,7 +2946,7 @@
         <v>128255.8095238095</v>
       </c>
       <c r="C12" t="n">
-        <v>28090.85714285713</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>859.0476190476187</v>
@@ -2958,7 +2958,7 @@
         <v>104803.8095238095</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>28090.85714285713</v>
       </c>
     </row>
     <row r="13">
@@ -2971,7 +2971,7 @@
         <v>208415.6904761905</v>
       </c>
       <c r="C13" t="n">
-        <v>45647.64285714283</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>1395.952380952381</v>
@@ -2983,7 +2983,7 @@
         <v>170306.1904761905</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>45647.64285714283</v>
       </c>
     </row>
     <row r="14">
@@ -2996,7 +2996,7 @@
         <v>144287.7857142857</v>
       </c>
       <c r="C14" t="n">
-        <v>31602.21428571427</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>966.428571428571</v>
@@ -3008,7 +3008,7 @@
         <v>117904.2857142857</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>31602.21428571427</v>
       </c>
     </row>
     <row r="15">
@@ -3021,7 +3021,7 @@
         <v>721438.9285714285</v>
       </c>
       <c r="C15" t="n">
-        <v>158011.0714285716</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>4832.142857142856</v>
@@ -3033,7 +3033,7 @@
         <v>589521.4285714285</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>158011.0714285714</v>
       </c>
     </row>
     <row r="16">
@@ -3071,7 +3071,7 @@
         <v>480959.2857142857</v>
       </c>
       <c r="C17" t="n">
-        <v>105340.7142857142</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>3221.42857142857</v>
@@ -3083,7 +3083,7 @@
         <v>393014.2857142857</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>105340.7142857142</v>
       </c>
     </row>
     <row r="18">
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1073.809523809523</v>
+        <v>1073.809523809524</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>131004.7619047619</v>
       </c>
       <c r="G18" t="n">
-        <v>35113.57142857141</v>
+        <v>35113.5714285714</v>
       </c>
     </row>
     <row r="19">
@@ -3121,7 +3121,7 @@
         <v>833662.7619047619</v>
       </c>
       <c r="C19" t="n">
-        <v>182590.5714285716</v>
+        <v>182590.5714285713</v>
       </c>
       <c r="D19" t="n">
         <v>5583.809523809522</v>
@@ -3171,7 +3171,7 @@
         <v>432863.3571428571</v>
       </c>
       <c r="C21" t="n">
-        <v>94806.64285714281</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>2899.285714285713</v>
@@ -3183,7 +3183,7 @@
         <v>353712.8571428571</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>94806.64285714281</v>
       </c>
     </row>
     <row r="22">
@@ -3246,7 +3246,7 @@
         <v>705406.9523809523</v>
       </c>
       <c r="C24" t="n">
-        <v>154499.7142857144</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>4724.761904761903</v>
@@ -3258,7 +3258,7 @@
         <v>576420.9523809523</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>154499.7142857142</v>
       </c>
     </row>
     <row r="25">
@@ -3271,7 +3271,7 @@
         <v>593183.1190476191</v>
       </c>
       <c r="C25" t="n">
-        <v>129920.2142857142</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>3973.095238095237</v>
@@ -3283,7 +3283,7 @@
         <v>484717.619047619</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>129920.2142857142</v>
       </c>
     </row>
     <row r="26">
@@ -3321,7 +3321,7 @@
         <v>1603.197619047619</v>
       </c>
       <c r="C27" t="n">
-        <v>351.1357142857141</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>10.73809523809523</v>
@@ -3333,7 +3333,7 @@
         <v>1310.047619047619</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>351.1357142857141</v>
       </c>
     </row>
     <row r="28">
@@ -3346,10 +3346,10 @@
         <v>8015.988095238095</v>
       </c>
       <c r="C28" t="n">
-        <v>1755.678571428572</v>
+        <v>1755.67857142857</v>
       </c>
       <c r="D28" t="n">
-        <v>53.69047619047632</v>
+        <v>53.69047619047617</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -3371,7 +3371,7 @@
         <v>192383.7142857143</v>
       </c>
       <c r="C29" t="n">
-        <v>42136.28571428575</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>1288.571428571428</v>
@@ -3383,7 +3383,7 @@
         <v>157205.7142857143</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>42136.28571428569</v>
       </c>
     </row>
     <row r="30">
@@ -3421,7 +3421,7 @@
         <v>432863.3571428571</v>
       </c>
       <c r="C31" t="n">
-        <v>94806.64285714294</v>
+        <v>94806.64285714281</v>
       </c>
       <c r="D31" t="n">
         <v>2899.285714285713</v>
@@ -3446,7 +3446,7 @@
         <v>96191.85714285713</v>
       </c>
       <c r="C32" t="n">
-        <v>21068.14285714288</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>644.285714285714</v>
@@ -3458,7 +3458,7 @@
         <v>78602.85714285713</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>21068.14285714284</v>
       </c>
     </row>
     <row r="33">
@@ -3471,7 +3471,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>130433.3333333333</v>
@@ -3483,7 +3483,7 @@
         <v>602000</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
     </row>
     <row r="34">
@@ -3496,7 +3496,7 @@
         <v>93644.44444444445</v>
       </c>
       <c r="C34" t="n">
-        <v>86955.55555555556</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>86955.55555555556</v>
@@ -3508,7 +3508,7 @@
         <v>401333.3333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>86955.55555555556</v>
       </c>
     </row>
     <row r="35">
@@ -3521,7 +3521,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>73912.22222222223</v>
@@ -3533,7 +3533,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
     <row r="36">
@@ -3546,7 +3546,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C36" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>73912.22222222223</v>
@@ -3558,7 +3558,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
     <row r="37">
@@ -3571,7 +3571,7 @@
         <v>187288.8888888889</v>
       </c>
       <c r="C37" t="n">
-        <v>173911.1111111111</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>173911.1111111111</v>
@@ -3583,7 +3583,7 @@
         <v>802666.6666666666</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>173911.1111111111</v>
       </c>
     </row>
     <row r="38">
@@ -3596,7 +3596,7 @@
         <v>187288.8888888889</v>
       </c>
       <c r="C38" t="n">
-        <v>173911.1111111111</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>173911.1111111111</v>
@@ -3608,7 +3608,7 @@
         <v>802666.6666666666</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>173911.1111111111</v>
       </c>
     </row>
     <row r="39">
@@ -3646,7 +3646,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C40" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>130433.3333333333</v>
@@ -3658,7 +3658,7 @@
         <v>602000</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
     </row>
     <row r="41">
@@ -3696,7 +3696,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C42" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>73912.22222222223</v>
@@ -3708,7 +3708,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
     <row r="43">
@@ -3721,7 +3721,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C43" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>73912.22222222223</v>
@@ -3733,7 +3733,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
   </sheetData>
@@ -3797,7 +3797,7 @@
         <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
-        <v>7144833.333333374</v>
+        <v>1984506.7857972</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5160326.547536132</v>
       </c>
     </row>
     <row r="3">
@@ -3819,7 +3819,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C3" t="n">
         <v>7144833.333333331</v>
@@ -3844,10 +3844,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7144833.333333331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3869,22 +3869,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962963001</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222207</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.373700797557831e-08</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>342616.9444444413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3894,13 +3894,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407407</v>
+        <v>186885.2667219458</v>
       </c>
       <c r="C6" t="n">
-        <v>2186916.666666666</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1401639.500414593</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>280327.9000829186</v>
       </c>
     </row>
     <row r="7">
@@ -4022,7 +4022,7 @@
         <v>256511.619047619</v>
       </c>
       <c r="C11" t="n">
-        <v>56181.71428571425</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1718.095238095237</v>
@@ -4034,7 +4034,7 @@
         <v>209607.619047619</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>56181.71428571425</v>
       </c>
     </row>
     <row r="12">
@@ -4047,7 +4047,7 @@
         <v>128255.8095238095</v>
       </c>
       <c r="C12" t="n">
-        <v>28090.85714285713</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>859.0476190476187</v>
@@ -4059,7 +4059,7 @@
         <v>104803.8095238095</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>28090.85714285713</v>
       </c>
     </row>
     <row r="13">
@@ -4072,7 +4072,7 @@
         <v>208415.6904761905</v>
       </c>
       <c r="C13" t="n">
-        <v>45647.64285714283</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>1395.952380952381</v>
@@ -4084,7 +4084,7 @@
         <v>170306.1904761905</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>45647.64285714283</v>
       </c>
     </row>
     <row r="14">
@@ -4097,7 +4097,7 @@
         <v>144287.7857142857</v>
       </c>
       <c r="C14" t="n">
-        <v>31602.21428571427</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>966.428571428571</v>
@@ -4109,7 +4109,7 @@
         <v>117904.2857142857</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>31602.21428571427</v>
       </c>
     </row>
     <row r="15">
@@ -4147,7 +4147,7 @@
         <v>1282558.095238095</v>
       </c>
       <c r="C16" t="n">
-        <v>280908.5714285712</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>8590.476190476187</v>
@@ -4159,7 +4159,7 @@
         <v>1048038.095238095</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>280908.5714285712</v>
       </c>
     </row>
     <row r="17">
@@ -4172,7 +4172,7 @@
         <v>480959.2857142857</v>
       </c>
       <c r="C17" t="n">
-        <v>105340.7142857142</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>3221.42857142857</v>
@@ -4184,7 +4184,7 @@
         <v>393014.2857142857</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>105340.7142857142</v>
       </c>
     </row>
     <row r="18">
@@ -4197,10 +4197,10 @@
         <v>160319.7619047619</v>
       </c>
       <c r="C18" t="n">
-        <v>35113.57142857141</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1073.809523809523</v>
+        <v>1073.809523809524</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -4209,7 +4209,7 @@
         <v>131004.7619047619</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>35113.5714285714</v>
       </c>
     </row>
     <row r="19">
@@ -4222,7 +4222,7 @@
         <v>833662.7619047619</v>
       </c>
       <c r="C19" t="n">
-        <v>182590.5714285713</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>5583.809523809522</v>
@@ -4234,7 +4234,7 @@
         <v>681224.7619047619</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>182590.5714285713</v>
       </c>
     </row>
     <row r="20">
@@ -4247,10 +4247,10 @@
         <v>16031.97619047619</v>
       </c>
       <c r="C20" t="n">
-        <v>3511.357142857146</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>107.3809523809524</v>
+        <v>107.3809523809523</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -4259,7 +4259,7 @@
         <v>13100.47619047619</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3511.357142857141</v>
       </c>
     </row>
     <row r="21">
@@ -4297,7 +4297,7 @@
         <v>320639.5238095238</v>
       </c>
       <c r="C22" t="n">
-        <v>70227.14285714281</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>2147.619047619047</v>
@@ -4309,7 +4309,7 @@
         <v>262009.5238095238</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>70227.14285714281</v>
       </c>
     </row>
     <row r="23">
@@ -4322,7 +4322,7 @@
         <v>112223.8333333333</v>
       </c>
       <c r="C23" t="n">
-        <v>12029.77777777337</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>751.6666666666664</v>
@@ -4334,7 +4334,7 @@
         <v>91703.33333333333</v>
       </c>
       <c r="G23" t="n">
-        <v>12549.72222222661</v>
+        <v>24579.49999999999</v>
       </c>
     </row>
     <row r="24">
@@ -4372,7 +4372,7 @@
         <v>593183.1190476191</v>
       </c>
       <c r="C25" t="n">
-        <v>129920.2142857144</v>
+        <v>129920.2142857142</v>
       </c>
       <c r="D25" t="n">
         <v>3973.095238095237</v>
@@ -4397,7 +4397,7 @@
         <v>320639.5238095238</v>
       </c>
       <c r="C26" t="n">
-        <v>70227.14285714281</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>2147.619047619047</v>
@@ -4409,7 +4409,7 @@
         <v>262009.5238095238</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>70227.14285714281</v>
       </c>
     </row>
     <row r="27">
@@ -4419,10 +4419,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1603.197619047621</v>
+        <v>1603.197619047619</v>
       </c>
       <c r="C27" t="n">
-        <v>351.1357142857141</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>10.73809523809523</v>
@@ -4434,7 +4434,7 @@
         <v>1310.047619047619</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>351.1357142857141</v>
       </c>
     </row>
     <row r="28">
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8015.988095238103</v>
+        <v>8015.988095238095</v>
       </c>
       <c r="C28" t="n">
-        <v>1755.678571428572</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>53.69047619047632</v>
+        <v>53.69047619047617</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -4459,7 +4459,7 @@
         <v>6550.238095238095</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1755.67857142857</v>
       </c>
     </row>
     <row r="29">
@@ -4472,7 +4472,7 @@
         <v>192383.7142857143</v>
       </c>
       <c r="C29" t="n">
-        <v>42136.28571428569</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>1288.571428571428</v>
@@ -4484,7 +4484,7 @@
         <v>157205.7142857143</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>42136.28571428569</v>
       </c>
     </row>
     <row r="30">
@@ -4522,7 +4522,7 @@
         <v>432863.3571428571</v>
       </c>
       <c r="C31" t="n">
-        <v>94806.64285714281</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>2899.285714285713</v>
@@ -4534,7 +4534,7 @@
         <v>353712.8571428571</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>94806.64285714281</v>
       </c>
     </row>
     <row r="32">
@@ -4547,7 +4547,7 @@
         <v>96191.85714285713</v>
       </c>
       <c r="C32" t="n">
-        <v>21068.14285714288</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>644.285714285714</v>
@@ -4559,7 +4559,7 @@
         <v>78602.85714285713</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>21068.14285714284</v>
       </c>
     </row>
     <row r="33">
@@ -4572,7 +4572,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>130433.3333333333</v>
@@ -4584,7 +4584,7 @@
         <v>602000</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
     </row>
     <row r="34">
@@ -4597,7 +4597,7 @@
         <v>93644.44444444445</v>
       </c>
       <c r="C34" t="n">
-        <v>86955.55555555556</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>86955.55555555556</v>
@@ -4609,7 +4609,7 @@
         <v>401333.3333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>86955.55555555556</v>
       </c>
     </row>
     <row r="35">
@@ -4622,7 +4622,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>73912.22222222223</v>
@@ -4634,7 +4634,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
     <row r="36">
@@ -4647,7 +4647,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C36" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>73912.22222222223</v>
@@ -4659,7 +4659,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
     <row r="37">
@@ -4697,7 +4697,7 @@
         <v>187288.8888888889</v>
       </c>
       <c r="C38" t="n">
-        <v>173911.1111111111</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>173911.1111111111</v>
@@ -4709,7 +4709,7 @@
         <v>802666.6666666666</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>173911.1111111111</v>
       </c>
     </row>
     <row r="39">
@@ -4722,7 +4722,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>73912.22222222223</v>
@@ -4734,7 +4734,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
     <row r="40">
@@ -4747,7 +4747,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C40" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>130433.3333333333</v>
@@ -4759,7 +4759,7 @@
         <v>602000</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
     </row>
     <row r="41">
@@ -4772,7 +4772,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>73912.22222222223</v>
@@ -4784,7 +4784,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
     <row r="42">
@@ -4797,7 +4797,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C42" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>73912.22222222223</v>
@@ -4809,7 +4809,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
     <row r="43">
@@ -4822,7 +4822,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C43" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>73912.22222222223</v>
@@ -4834,7 +4834,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
   </sheetData>
@@ -4898,7 +4898,7 @@
         <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
-        <v>7144833.333333331</v>
+        <v>413820.5476190463</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6731012.785714285</v>
       </c>
     </row>
     <row r="3">
@@ -4920,22 +4920,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703779</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C3" t="n">
-        <v>4963914.09206348</v>
+        <v>7144833.333333333</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.747401595115663e-08</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2180919.241269846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4948,7 +4948,7 @@
         <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333331</v>
+        <v>7144833.333333333</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4970,13 +4970,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>342616.9444444444</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4995,7 +4995,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407407</v>
+        <v>692523.611111111</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -5004,13 +5004,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1615888.425925926</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2186916.666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5098,7 +5098,7 @@
         <v>1603197.619047619</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>351135.7142857141</v>
       </c>
       <c r="D10" t="n">
         <v>10738.09523809523</v>
@@ -5110,7 +5110,7 @@
         <v>1310047.619047619</v>
       </c>
       <c r="G10" t="n">
-        <v>351135.7142857141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5123,7 +5123,7 @@
         <v>256511.619047619</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>56181.71428571425</v>
       </c>
       <c r="D11" t="n">
         <v>1718.095238095237</v>
@@ -5135,7 +5135,7 @@
         <v>209607.619047619</v>
       </c>
       <c r="G11" t="n">
-        <v>56181.71428571425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -5148,7 +5148,7 @@
         <v>128255.8095238095</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>28090.85714285713</v>
       </c>
       <c r="D12" t="n">
         <v>859.0476190476187</v>
@@ -5160,7 +5160,7 @@
         <v>104803.8095238095</v>
       </c>
       <c r="G12" t="n">
-        <v>28090.85714285713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -5173,7 +5173,7 @@
         <v>208415.6904761905</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>45647.64285714283</v>
       </c>
       <c r="D13" t="n">
         <v>1395.952380952381</v>
@@ -5185,7 +5185,7 @@
         <v>170306.1904761905</v>
       </c>
       <c r="G13" t="n">
-        <v>45647.64285714283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -5198,7 +5198,7 @@
         <v>144287.7857142857</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>31602.21428571427</v>
       </c>
       <c r="D14" t="n">
         <v>966.428571428571</v>
@@ -5210,7 +5210,7 @@
         <v>117904.2857142857</v>
       </c>
       <c r="G14" t="n">
-        <v>31602.21428571427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -5273,7 +5273,7 @@
         <v>480959.2857142857</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>105340.7142857142</v>
       </c>
       <c r="D17" t="n">
         <v>3221.42857142857</v>
@@ -5285,7 +5285,7 @@
         <v>393014.2857142857</v>
       </c>
       <c r="G17" t="n">
-        <v>105340.7142857142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1073.809523809523</v>
+        <v>1073.809523809524</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -5310,7 +5310,7 @@
         <v>131004.7619047619</v>
       </c>
       <c r="G18" t="n">
-        <v>35113.57142857141</v>
+        <v>35113.5714285714</v>
       </c>
     </row>
     <row r="19">
@@ -5323,7 +5323,7 @@
         <v>833662.7619047619</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>182590.5714285713</v>
       </c>
       <c r="D19" t="n">
         <v>5583.809523809522</v>
@@ -5335,7 +5335,7 @@
         <v>681224.7619047619</v>
       </c>
       <c r="G19" t="n">
-        <v>182590.5714285713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5345,10 +5345,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16031.97619047621</v>
+        <v>16031.97619047619</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3511.357142857141</v>
       </c>
       <c r="D20" t="n">
         <v>107.3809523809523</v>
@@ -5360,7 +5360,7 @@
         <v>13100.47619047619</v>
       </c>
       <c r="G20" t="n">
-        <v>3511.357142857141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5373,7 +5373,7 @@
         <v>432863.3571428571</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>94806.64285714281</v>
       </c>
       <c r="D21" t="n">
         <v>2899.285714285713</v>
@@ -5385,7 +5385,7 @@
         <v>353712.8571428571</v>
       </c>
       <c r="G21" t="n">
-        <v>94806.64285714281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5423,7 +5423,7 @@
         <v>112223.8333333333</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>24579.49999999999</v>
       </c>
       <c r="D23" t="n">
         <v>751.6666666666664</v>
@@ -5435,7 +5435,7 @@
         <v>91703.33333333333</v>
       </c>
       <c r="G23" t="n">
-        <v>24579.49999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -5473,7 +5473,7 @@
         <v>593183.1190476191</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>129920.2142857142</v>
       </c>
       <c r="D25" t="n">
         <v>3973.095238095237</v>
@@ -5485,7 +5485,7 @@
         <v>484717.619047619</v>
       </c>
       <c r="G25" t="n">
-        <v>129920.2142857142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -5523,10 +5523,10 @@
         <v>1603.197619047619</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>351.1357142857141</v>
       </c>
       <c r="D27" t="n">
-        <v>10.73809523809524</v>
+        <v>10.73809523809523</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -5535,7 +5535,7 @@
         <v>1310.047619047619</v>
       </c>
       <c r="G27" t="n">
-        <v>351.1357142857141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5548,10 +5548,10 @@
         <v>8015.988095238095</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1755.67857142857</v>
       </c>
       <c r="D28" t="n">
-        <v>53.69047619047632</v>
+        <v>53.69047619047617</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -5560,7 +5560,7 @@
         <v>6550.238095238095</v>
       </c>
       <c r="G28" t="n">
-        <v>1755.678571428572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5573,7 +5573,7 @@
         <v>192383.7142857143</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>42136.28571428569</v>
       </c>
       <c r="D29" t="n">
         <v>1288.571428571428</v>
@@ -5585,7 +5585,7 @@
         <v>157205.7142857143</v>
       </c>
       <c r="G29" t="n">
-        <v>42136.28571428569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -5598,7 +5598,7 @@
         <v>48095.92857142857</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>10534.07142857142</v>
       </c>
       <c r="D30" t="n">
         <v>322.142857142857</v>
@@ -5610,7 +5610,7 @@
         <v>39301.42857142857</v>
       </c>
       <c r="G30" t="n">
-        <v>10534.07142857142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5623,7 +5623,7 @@
         <v>432863.3571428571</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>94806.64285714281</v>
       </c>
       <c r="D31" t="n">
         <v>2899.285714285713</v>
@@ -5635,7 +5635,7 @@
         <v>353712.8571428571</v>
       </c>
       <c r="G31" t="n">
-        <v>94806.64285714281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5648,7 +5648,7 @@
         <v>96191.85714285713</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>21068.14285714284</v>
       </c>
       <c r="D32" t="n">
         <v>644.285714285714</v>
@@ -5660,7 +5660,7 @@
         <v>78602.85714285713</v>
       </c>
       <c r="G32" t="n">
-        <v>21068.14285714284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5673,7 +5673,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
       <c r="D33" t="n">
         <v>130433.3333333333</v>
@@ -5685,7 +5685,7 @@
         <v>602000</v>
       </c>
       <c r="G33" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -5698,7 +5698,7 @@
         <v>93644.44444444445</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>86955.55555555556</v>
       </c>
       <c r="D34" t="n">
         <v>86955.55555555556</v>
@@ -5710,7 +5710,7 @@
         <v>401333.3333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>86955.55555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5723,7 +5723,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D35" t="n">
         <v>73912.22222222223</v>
@@ -5735,7 +5735,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5748,7 +5748,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D36" t="n">
         <v>73912.22222222223</v>
@@ -5760,7 +5760,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G36" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5773,7 +5773,7 @@
         <v>187288.8888888889</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="D37" t="n">
         <v>173911.1111111111</v>
@@ -5785,7 +5785,7 @@
         <v>802666.6666666666</v>
       </c>
       <c r="G37" t="n">
-        <v>173911.1111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -5798,7 +5798,7 @@
         <v>187288.8888888889</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="D38" t="n">
         <v>173911.1111111111</v>
@@ -5810,7 +5810,7 @@
         <v>802666.6666666666</v>
       </c>
       <c r="G38" t="n">
-        <v>173911.1111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -5823,7 +5823,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D39" t="n">
         <v>73912.22222222223</v>
@@ -5835,7 +5835,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G39" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -5848,7 +5848,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
       <c r="D40" t="n">
         <v>130433.3333333333</v>
@@ -5860,7 +5860,7 @@
         <v>602000</v>
       </c>
       <c r="G40" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -5873,7 +5873,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D41" t="n">
         <v>73912.22222222223</v>
@@ -5885,7 +5885,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -5898,7 +5898,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D42" t="n">
         <v>73912.22222222223</v>
@@ -5910,7 +5910,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G42" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -5923,7 +5923,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D43" t="n">
         <v>73912.22222222223</v>
@@ -5935,7 +5935,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
-        <v>3849111.909523807</v>
+        <v>7144833.333333333</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3295721.423809526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C3" t="n">
         <v>7144833.333333333</v>
@@ -6046,22 +6046,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703779</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333326</v>
+        <v>4963914.092063488</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.747401595115663e-08</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2180919.241269846</v>
       </c>
     </row>
     <row r="5">
@@ -6071,13 +6071,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>342616.9444444444</v>
+        <v>2186916.666666666</v>
       </c>
     </row>
     <row r="6">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407411</v>
+        <v>692523.611111111</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -6105,13 +6105,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1615888.425925926</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2186916.666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -6199,7 +6199,7 @@
         <v>1603197.619047619</v>
       </c>
       <c r="C10" t="n">
-        <v>351135.7142857141</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>10738.09523809523</v>
@@ -6211,7 +6211,7 @@
         <v>1310047.619047619</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>351135.7142857141</v>
       </c>
     </row>
     <row r="11">
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1718.095238095237</v>
+        <v>1718.095238095238</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -6249,10 +6249,10 @@
         <v>128255.8095238095</v>
       </c>
       <c r="C12" t="n">
-        <v>28090.85714285713</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>859.0476190476187</v>
+        <v>859.0476190476188</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -6261,7 +6261,7 @@
         <v>104803.8095238095</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>28090.85714285713</v>
       </c>
     </row>
     <row r="13">
@@ -6274,7 +6274,7 @@
         <v>208415.6904761905</v>
       </c>
       <c r="C13" t="n">
-        <v>45647.64285714283</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>1395.952380952381</v>
@@ -6286,7 +6286,7 @@
         <v>170306.1904761905</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>45647.64285714283</v>
       </c>
     </row>
     <row r="14">
@@ -6324,10 +6324,10 @@
         <v>721438.9285714285</v>
       </c>
       <c r="C15" t="n">
-        <v>158011.0714285714</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>4832.142857142856</v>
+        <v>4832.142857142857</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -6336,7 +6336,7 @@
         <v>589521.4285714285</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>158011.0714285714</v>
       </c>
     </row>
     <row r="16">
@@ -6374,7 +6374,7 @@
         <v>480959.2857142857</v>
       </c>
       <c r="C17" t="n">
-        <v>105340.7142857142</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>3221.42857142857</v>
@@ -6386,7 +6386,7 @@
         <v>393014.2857142857</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>105340.7142857142</v>
       </c>
     </row>
     <row r="18">
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>107.3809523809524</v>
+        <v>107.3809523809523</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -6477,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2899.285714285713</v>
+        <v>2899.285714285714</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -6524,7 +6524,7 @@
         <v>112223.8333333333</v>
       </c>
       <c r="C23" t="n">
-        <v>24579.49999999999</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>751.6666666666664</v>
@@ -6536,7 +6536,7 @@
         <v>91703.33333333333</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>24579.49999999999</v>
       </c>
     </row>
     <row r="24">
@@ -6549,10 +6549,10 @@
         <v>705406.9523809523</v>
       </c>
       <c r="C24" t="n">
-        <v>154499.7142857142</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>4724.761904761903</v>
+        <v>4724.761904761904</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -6561,7 +6561,7 @@
         <v>576420.9523809523</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>154499.7142857142</v>
       </c>
     </row>
     <row r="25">
@@ -6574,7 +6574,7 @@
         <v>593183.1190476191</v>
       </c>
       <c r="C25" t="n">
-        <v>129920.2142857142</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>3973.095238095237</v>
@@ -6586,7 +6586,7 @@
         <v>484717.619047619</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>129920.2142857142</v>
       </c>
     </row>
     <row r="26">
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>10.73809523809524</v>
+        <v>10.73809523809523</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -6749,7 +6749,7 @@
         <v>96191.85714285713</v>
       </c>
       <c r="C32" t="n">
-        <v>21068.14285714284</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>644.285714285714</v>
@@ -6761,7 +6761,7 @@
         <v>78602.85714285713</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>21068.14285714284</v>
       </c>
     </row>
     <row r="33">
@@ -6799,7 +6799,7 @@
         <v>93644.44444444445</v>
       </c>
       <c r="C34" t="n">
-        <v>86955.55555555556</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>86955.55555555556</v>
@@ -6811,7 +6811,7 @@
         <v>401333.3333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>86955.55555555556</v>
       </c>
     </row>
     <row r="35">
@@ -6824,7 +6824,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>73912.22222222222</v>
@@ -6836,7 +6836,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
     </row>
     <row r="36">
@@ -6849,7 +6849,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C36" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>73912.22222222222</v>
@@ -6861,7 +6861,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
     </row>
     <row r="37">
@@ -6949,7 +6949,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C40" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>130433.3333333333</v>
@@ -6961,7 +6961,7 @@
         <v>602000</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
     </row>
     <row r="41">
@@ -6999,7 +6999,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C42" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>73912.22222222222</v>
@@ -7011,7 +7011,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
     </row>
     <row r="43">
@@ -7097,7 +7097,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -7112,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333331</v>
       </c>
     </row>
     <row r="3">
@@ -7122,10 +7122,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703713</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C3" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703682</v>
       </c>
       <c r="C4" t="n">
-        <v>1789666.666666666</v>
+        <v>2140802.380952375</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5355166.666666667</v>
+        <v>5004030.952380954</v>
       </c>
     </row>
     <row r="5">
@@ -7172,16 +7172,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>692523.611111111</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1615888.425925926</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407411</v>
+        <v>692523.611111111</v>
       </c>
       <c r="C6" t="n">
-        <v>2186916.666666667</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1615888.425925926</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>1603197.619047619</v>
       </c>
       <c r="C10" t="n">
-        <v>351135.7142857141</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>10738.09523809523</v>
@@ -7312,7 +7312,7 @@
         <v>1310047.619047619</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>351135.7142857141</v>
       </c>
     </row>
     <row r="11">
@@ -7328,7 +7328,7 @@
         <v>56181.71428571425</v>
       </c>
       <c r="D11" t="n">
-        <v>1718.095238095237</v>
+        <v>1718.095238095238</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>28090.85714285713</v>
       </c>
       <c r="D12" t="n">
-        <v>859.0476190476187</v>
+        <v>859.0476190476188</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -7428,7 +7428,7 @@
         <v>158011.0714285714</v>
       </c>
       <c r="D15" t="n">
-        <v>4832.142857142856</v>
+        <v>4832.142857142857</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -7553,7 +7553,7 @@
         <v>3511.357142857141</v>
       </c>
       <c r="D20" t="n">
-        <v>107.3809523809526</v>
+        <v>107.3809523809523</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>94806.64285714281</v>
       </c>
       <c r="D21" t="n">
-        <v>2899.285714285713</v>
+        <v>2899.285714285714</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -7653,7 +7653,7 @@
         <v>154499.7142857142</v>
       </c>
       <c r="D24" t="n">
-        <v>4724.761904761903</v>
+        <v>4724.761904761904</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -7728,7 +7728,7 @@
         <v>351.1357142857141</v>
       </c>
       <c r="D27" t="n">
-        <v>10.73809523809526</v>
+        <v>10.73809523809524</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -7753,7 +7753,7 @@
         <v>1755.67857142857</v>
       </c>
       <c r="D28" t="n">
-        <v>53.69047619047632</v>
+        <v>53.69047619047618</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -8198,7 +8198,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333331</v>
       </c>
     </row>
     <row r="3">
@@ -8223,10 +8223,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703713</v>
+        <v>793870.3703703682</v>
       </c>
       <c r="C3" t="n">
-        <v>5863711.377777774</v>
+        <v>6308518.155555543</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8238,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1281121.955555558</v>
+        <v>836315.1777777725</v>
       </c>
     </row>
     <row r="4">
@@ -8248,7 +8248,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703713</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333331</v>
       </c>
     </row>
     <row r="5">
@@ -8273,16 +8273,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>692523.611111111</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2186916.666666667</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1615888.425925926</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -8298,16 +8298,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407407</v>
+        <v>692523.611111111</v>
       </c>
       <c r="C6" t="n">
-        <v>2186916.666666666</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1615888.425925926</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -8426,10 +8426,10 @@
         <v>256511.619047619</v>
       </c>
       <c r="C11" t="n">
-        <v>56181.71428571425</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1718.095238095237</v>
+        <v>1718.095238095238</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -8438,7 +8438,7 @@
         <v>209607.619047619</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>56181.71428571425</v>
       </c>
     </row>
     <row r="12">
@@ -8451,10 +8451,10 @@
         <v>128255.8095238095</v>
       </c>
       <c r="C12" t="n">
-        <v>28090.85714285713</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>859.0476190476187</v>
+        <v>859.0476190476188</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -8463,7 +8463,7 @@
         <v>104803.8095238095</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>28090.85714285713</v>
       </c>
     </row>
     <row r="13">
@@ -8526,10 +8526,10 @@
         <v>721438.9285714285</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>158011.0714285714</v>
       </c>
       <c r="D15" t="n">
-        <v>4832.142857142856</v>
+        <v>4832.142857142857</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -8538,7 +8538,7 @@
         <v>589521.4285714285</v>
       </c>
       <c r="G15" t="n">
-        <v>158011.0714285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -8551,7 +8551,7 @@
         <v>1282558.095238095</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>280908.5714285712</v>
       </c>
       <c r="D16" t="n">
         <v>8590.476190476187</v>
@@ -8563,7 +8563,7 @@
         <v>1048038.095238095</v>
       </c>
       <c r="G16" t="n">
-        <v>280908.5714285712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -8576,7 +8576,7 @@
         <v>480959.2857142857</v>
       </c>
       <c r="C17" t="n">
-        <v>105340.7142857142</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>3221.42857142857</v>
@@ -8588,7 +8588,7 @@
         <v>393014.2857142857</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>105340.7142857142</v>
       </c>
     </row>
     <row r="18">
@@ -8651,10 +8651,10 @@
         <v>16031.97619047619</v>
       </c>
       <c r="C20" t="n">
-        <v>3511.357142857141</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>107.3809523809526</v>
+        <v>107.3809523809524</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -8663,7 +8663,7 @@
         <v>13100.47619047619</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3511.357142857141</v>
       </c>
     </row>
     <row r="21">
@@ -8679,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2899.285714285713</v>
+        <v>2899.285714285714</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -8726,7 +8726,7 @@
         <v>112223.8333333333</v>
       </c>
       <c r="C23" t="n">
-        <v>24579.49999999999</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>751.6666666666664</v>
@@ -8738,7 +8738,7 @@
         <v>91703.33333333333</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>24579.49999999999</v>
       </c>
     </row>
     <row r="24">
@@ -8751,10 +8751,10 @@
         <v>705406.9523809523</v>
       </c>
       <c r="C24" t="n">
-        <v>154499.7142857142</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>4724.761904761903</v>
+        <v>4724.761904761904</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>576420.9523809523</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>154499.7142857142</v>
       </c>
     </row>
     <row r="25">
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>10.73809523809526</v>
+        <v>10.73809523809523</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>432863.3571428571</v>
       </c>
       <c r="C31" t="n">
-        <v>94806.64285714281</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>2899.285714285713</v>
@@ -8938,7 +8938,7 @@
         <v>353712.8571428571</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>94806.64285714281</v>
       </c>
     </row>
     <row r="32">
@@ -8951,7 +8951,7 @@
         <v>96191.85714285713</v>
       </c>
       <c r="C32" t="n">
-        <v>21068.14285714284</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>644.285714285714</v>
@@ -8963,7 +8963,7 @@
         <v>78602.85714285713</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>21068.14285714284</v>
       </c>
     </row>
     <row r="33">
@@ -8976,7 +8976,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>130433.3333333333</v>
@@ -8988,7 +8988,7 @@
         <v>602000</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
     </row>
     <row r="34">
@@ -9001,7 +9001,7 @@
         <v>93644.44444444445</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>86955.55555555556</v>
       </c>
       <c r="D34" t="n">
         <v>86955.55555555556</v>
@@ -9013,7 +9013,7 @@
         <v>401333.3333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>86955.55555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -9026,7 +9026,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>73912.22222222222</v>
@@ -9038,7 +9038,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
     </row>
     <row r="36">
@@ -9126,7 +9126,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>73912.22222222222</v>
@@ -9138,7 +9138,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
     </row>
     <row r="40">
@@ -9151,7 +9151,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C40" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>130433.3333333333</v>
@@ -9163,7 +9163,7 @@
         <v>602000</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
     </row>
     <row r="41">
@@ -9226,7 +9226,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C43" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>73912.22222222222</v>
@@ -9238,7 +9238,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
     </row>
   </sheetData>
@@ -9299,7 +9299,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703682</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.33333333</v>
       </c>
     </row>
     <row r="3">
@@ -9324,7 +9324,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333331</v>
       </c>
     </row>
     <row r="4">
@@ -9349,10 +9349,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703682</v>
       </c>
       <c r="C4" t="n">
-        <v>869314.1190476179</v>
+        <v>3737411.258730156</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6275519.214285715</v>
+        <v>3407422.074603173</v>
       </c>
     </row>
     <row r="5">
@@ -9374,7 +9374,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>692523.611111111</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9383,13 +9383,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1615888.425925926</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2186916.666666667</v>
       </c>
     </row>
     <row r="6">
@@ -9399,16 +9399,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407411</v>
+        <v>692523.6111111109</v>
       </c>
       <c r="C6" t="n">
-        <v>2186916.666666667</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1615888.425925925</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1718.095238095237</v>
+        <v>1718.095238095238</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>859.0476190476187</v>
+        <v>859.0476190476188</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -9577,7 +9577,7 @@
         <v>208415.6904761905</v>
       </c>
       <c r="C13" t="n">
-        <v>45647.6428571429</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>1395.952380952381</v>
@@ -9589,7 +9589,7 @@
         <v>170306.1904761905</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>45647.64285714283</v>
       </c>
     </row>
     <row r="14">
@@ -9602,7 +9602,7 @@
         <v>144287.7857142857</v>
       </c>
       <c r="C14" t="n">
-        <v>31602.21428571431</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>966.428571428571</v>
@@ -9614,7 +9614,7 @@
         <v>117904.2857142857</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>31602.21428571427</v>
       </c>
     </row>
     <row r="15">
@@ -9627,10 +9627,10 @@
         <v>721438.9285714285</v>
       </c>
       <c r="C15" t="n">
-        <v>158011.0714285716</v>
+        <v>158011.0714285714</v>
       </c>
       <c r="D15" t="n">
-        <v>4832.142857142856</v>
+        <v>4832.142857142857</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>1282558.095238095</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>280908.5714285712</v>
       </c>
       <c r="D16" t="n">
         <v>8590.476190476187</v>
@@ -9664,7 +9664,7 @@
         <v>1048038.095238095</v>
       </c>
       <c r="G16" t="n">
-        <v>280908.5714285712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -9677,7 +9677,7 @@
         <v>480959.2857142857</v>
       </c>
       <c r="C17" t="n">
-        <v>105340.7142857144</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>3221.42857142857</v>
@@ -9689,7 +9689,7 @@
         <v>393014.2857142857</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>105340.7142857142</v>
       </c>
     </row>
     <row r="18">
@@ -9727,7 +9727,7 @@
         <v>833662.7619047619</v>
       </c>
       <c r="C19" t="n">
-        <v>182590.5714285716</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>5583.809523809522</v>
@@ -9739,7 +9739,7 @@
         <v>681224.7619047619</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>182590.5714285713</v>
       </c>
     </row>
     <row r="20">
@@ -9755,7 +9755,7 @@
         <v>3511.357142857141</v>
       </c>
       <c r="D20" t="n">
-        <v>107.3809523809524</v>
+        <v>107.3809523809523</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -9777,10 +9777,10 @@
         <v>432863.3571428571</v>
       </c>
       <c r="C21" t="n">
-        <v>94806.64285714294</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2899.285714285713</v>
+        <v>2899.285714285714</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>353712.8571428571</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>94806.64285714281</v>
       </c>
     </row>
     <row r="22">
@@ -9855,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>4724.761904761903</v>
+        <v>4724.761904761904</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -9927,10 +9927,10 @@
         <v>1603.197619047619</v>
       </c>
       <c r="C27" t="n">
-        <v>351.1357142857141</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>10.73809523809524</v>
+        <v>10.73809523809523</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -9939,7 +9939,7 @@
         <v>1310.047619047619</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>351.1357142857141</v>
       </c>
     </row>
     <row r="28">
@@ -9952,7 +9952,7 @@
         <v>8015.988095238095</v>
       </c>
       <c r="C28" t="n">
-        <v>1755.67857142857</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>53.69047619047617</v>
@@ -9964,7 +9964,7 @@
         <v>6550.238095238095</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1755.67857142857</v>
       </c>
     </row>
     <row r="29">
@@ -9977,7 +9977,7 @@
         <v>192383.7142857143</v>
       </c>
       <c r="C29" t="n">
-        <v>42136.28571428575</v>
+        <v>42136.28571428569</v>
       </c>
       <c r="D29" t="n">
         <v>1288.571428571428</v>
@@ -10002,7 +10002,7 @@
         <v>48095.92857142857</v>
       </c>
       <c r="C30" t="n">
-        <v>10534.07142857144</v>
+        <v>10534.07142857142</v>
       </c>
       <c r="D30" t="n">
         <v>322.142857142857</v>
@@ -10052,7 +10052,7 @@
         <v>96191.85714285713</v>
       </c>
       <c r="C32" t="n">
-        <v>21068.14285714288</v>
+        <v>21068.14285714284</v>
       </c>
       <c r="D32" t="n">
         <v>644.285714285714</v>
@@ -10152,7 +10152,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C36" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>73912.22222222222</v>
@@ -10164,7 +10164,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
     </row>
     <row r="37">
@@ -10227,7 +10227,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>73912.22222222222</v>
@@ -10239,7 +10239,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
     </row>
     <row r="40">
@@ -10252,7 +10252,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C40" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>130433.3333333333</v>
@@ -10264,7 +10264,7 @@
         <v>602000</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
     </row>
     <row r="41">
@@ -10277,7 +10277,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>73912.22222222222</v>
@@ -10289,7 +10289,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
     </row>
     <row r="42">
@@ -10302,7 +10302,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C42" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>73912.22222222222</v>
@@ -10314,7 +10314,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
     </row>
     <row r="43">
@@ -10327,7 +10327,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C43" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>73912.22222222222</v>
@@ -10339,7 +10339,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
     </row>
   </sheetData>
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -10415,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333331</v>
       </c>
     </row>
     <row r="3">
@@ -10425,7 +10425,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703713</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333331</v>
       </c>
     </row>
     <row r="4">
@@ -10450,7 +10450,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703713</v>
+        <v>793870.3703703682</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -10465,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.33333333</v>
       </c>
     </row>
     <row r="5">
@@ -10475,7 +10475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>692523.611111111</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -10484,13 +10484,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1615888.425925926</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2186916.666666667</v>
       </c>
     </row>
     <row r="6">
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407411</v>
+        <v>692523.6111111109</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -10509,13 +10509,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1615888.425925925</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2186916.666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -10631,7 +10631,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1718.095238095237</v>
+        <v>1718.095238095238</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -10656,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>859.0476190476187</v>
+        <v>859.0476190476188</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -10731,7 +10731,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>4832.142857142856</v>
+        <v>4832.142857142857</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -10856,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>107.3809523809524</v>
+        <v>107.3809523809523</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -10881,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2899.285714285713</v>
+        <v>2899.285714285714</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -10956,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>4724.761904761903</v>
+        <v>4724.761904761904</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -11025,22 +11025,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1603.197619047621</v>
+        <v>1603.197619047619</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>10.73809523809454</v>
+        <v>10.73809523809523</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1310.047619047617</v>
+        <v>1310.047619047619</v>
       </c>
       <c r="G27" t="n">
-        <v>351.13571428571</v>
+        <v>351.1357142857141</v>
       </c>
     </row>
     <row r="28">
@@ -11501,7 +11501,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -11516,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333261</v>
       </c>
     </row>
     <row r="3">
@@ -11526,7 +11526,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -11541,7 +11541,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333261</v>
       </c>
     </row>
     <row r="4">
@@ -11551,7 +11551,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703682</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -11566,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333328</v>
       </c>
     </row>
     <row r="5">
@@ -11576,7 +11576,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>692523.611111111</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -11585,13 +11585,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1615888.425925926</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2186916.666666666</v>
       </c>
     </row>
     <row r="6">
@@ -11601,7 +11601,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407411</v>
+        <v>692523.6111111109</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -11610,13 +11610,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1615888.425925925</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2186916.666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -11732,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1718.095238095237</v>
+        <v>1718.095238095238</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -11757,7 +11757,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>859.0476190476187</v>
+        <v>859.0476190476188</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -11832,7 +11832,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>4832.142857142856</v>
+        <v>4832.142857142857</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -11951,22 +11951,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16031.97619047621</v>
+        <v>16031.97619047619</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>107.3809523809454</v>
+        <v>107.3809523809523</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13100.47619047617</v>
+        <v>13100.47619047619</v>
       </c>
       <c r="G20" t="n">
-        <v>3511.3571428571</v>
+        <v>3511.357142857141</v>
       </c>
     </row>
     <row r="21">
@@ -11982,7 +11982,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2899.285714285713</v>
+        <v>2899.285714285714</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -12057,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>4724.761904761903</v>
+        <v>4724.761904761904</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>10.73809523809524</v>
+        <v>10.73809523809523</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -12605,10 +12605,10 @@
         <v>635096.2962962962</v>
       </c>
       <c r="C2" t="n">
-        <v>952644.4444444441</v>
+        <v>952644.444444444</v>
       </c>
       <c r="D2" t="n">
-        <v>4763222.222222221</v>
+        <v>4763222.22222222</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -12630,10 +12630,10 @@
         <v>635096.2962962962</v>
       </c>
       <c r="C3" t="n">
-        <v>952644.4444444441</v>
+        <v>952644.444444444</v>
       </c>
       <c r="D3" t="n">
-        <v>4763222.222222221</v>
+        <v>4763222.22222222</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -12655,7 +12655,7 @@
         <v>635096.2962962962</v>
       </c>
       <c r="C4" t="n">
-        <v>952644.444444444</v>
+        <v>952644.4444444383</v>
       </c>
       <c r="D4" t="n">
         <v>4763222.22222222</v>
@@ -12667,7 +12667,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>5.682522896677256e-09</v>
       </c>
     </row>
     <row r="5">
@@ -12702,13 +12702,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194392.5925925926</v>
+        <v>179813.1481481481</v>
       </c>
       <c r="C6" t="n">
-        <v>291588.8888888888</v>
+        <v>269719.7222222222</v>
       </c>
       <c r="D6" t="n">
-        <v>1457944.444444444</v>
+        <v>1348598.611111111</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -12830,7 +12830,7 @@
         <v>156346.6666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>180399.9999999999</v>
+        <v>180400.0000000006</v>
       </c>
       <c r="D11" t="n">
         <v>24053.33333333333</v>
@@ -12842,7 +12842,7 @@
         <v>240533.3333333333</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.839077123186805e-10</v>
       </c>
     </row>
     <row r="12">
@@ -12855,7 +12855,7 @@
         <v>78173.33333333333</v>
       </c>
       <c r="C12" t="n">
-        <v>90199.99999999997</v>
+        <v>90200.00000000028</v>
       </c>
       <c r="D12" t="n">
         <v>12026.66666666667</v>
@@ -12867,7 +12867,7 @@
         <v>120266.6666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-3.055902197957039e-10</v>
       </c>
     </row>
     <row r="13">
@@ -12880,7 +12880,7 @@
         <v>127031.6666666667</v>
       </c>
       <c r="C13" t="n">
-        <v>146575</v>
+        <v>146575.0000000005</v>
       </c>
       <c r="D13" t="n">
         <v>19543.33333333333</v>
@@ -12892,7 +12892,7 @@
         <v>195433.3333333333</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-4.94765117764473e-10</v>
       </c>
     </row>
     <row r="14">
@@ -12905,7 +12905,7 @@
         <v>87945</v>
       </c>
       <c r="C14" t="n">
-        <v>101475</v>
+        <v>101475.0000000003</v>
       </c>
       <c r="D14" t="n">
         <v>13530</v>
@@ -12917,7 +12917,7 @@
         <v>135300</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.492459654808044e-10</v>
       </c>
     </row>
     <row r="15">
@@ -13005,7 +13005,7 @@
         <v>97716.66666666666</v>
       </c>
       <c r="C18" t="n">
-        <v>112750</v>
+        <v>112750.0000000003</v>
       </c>
       <c r="D18" t="n">
         <v>15033.33333333333</v>
@@ -13017,7 +13017,7 @@
         <v>150333.3333333333</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-3.783497959375381e-10</v>
       </c>
     </row>
     <row r="19">
@@ -13030,7 +13030,7 @@
         <v>508126.6666666666</v>
       </c>
       <c r="C19" t="n">
-        <v>586299.9999999999</v>
+        <v>586300.0000000019</v>
       </c>
       <c r="D19" t="n">
         <v>78173.33333333333</v>
@@ -13042,7 +13042,7 @@
         <v>781733.3333333333</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.979060471057892e-09</v>
       </c>
     </row>
     <row r="20">
@@ -13130,7 +13130,7 @@
         <v>68401.66666666666</v>
       </c>
       <c r="C23" t="n">
-        <v>78924.99999999999</v>
+        <v>78925.00000000025</v>
       </c>
       <c r="D23" t="n">
         <v>10523.33333333333</v>
@@ -13142,7 +13142,7 @@
         <v>105233.3333333333</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-2.619344741106033e-10</v>
       </c>
     </row>
     <row r="24">
@@ -13205,7 +13205,7 @@
         <v>195433.3333333333</v>
       </c>
       <c r="C26" t="n">
-        <v>225499.9999999999</v>
+        <v>225500.0000000007</v>
       </c>
       <c r="D26" t="n">
         <v>30066.66666666666</v>
@@ -13217,7 +13217,7 @@
         <v>300666.6666666666</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-7.566995918750763e-10</v>
       </c>
     </row>
     <row r="27">
@@ -13280,7 +13280,7 @@
         <v>117260</v>
       </c>
       <c r="C29" t="n">
-        <v>135300</v>
+        <v>135300.0000000004</v>
       </c>
       <c r="D29" t="n">
         <v>18040</v>
@@ -13292,7 +13292,7 @@
         <v>180400</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-4.365574568510056e-10</v>
       </c>
     </row>
     <row r="30">
@@ -13305,7 +13305,7 @@
         <v>29315</v>
       </c>
       <c r="C30" t="n">
-        <v>33824.99999999999</v>
+        <v>33825.0000000001</v>
       </c>
       <c r="D30" t="n">
         <v>4510</v>
@@ -13317,7 +13317,7 @@
         <v>45099.99999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>-1.091393642127514e-10</v>
       </c>
     </row>
     <row r="31">
@@ -13703,7 +13703,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703552</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -13718,7 +13718,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333331</v>
+        <v>7144833.333333238</v>
       </c>
     </row>
     <row r="3">
@@ -13728,7 +13728,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703585</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -13743,7 +13743,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333245</v>
       </c>
     </row>
     <row r="4">
@@ -13753,7 +13753,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703714</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -13768,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333331</v>
       </c>
     </row>
     <row r="5">
@@ -13778,7 +13778,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>692523.611111111</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -13787,13 +13787,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1615888.425925926</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2186916.666666667</v>
       </c>
     </row>
     <row r="6">
@@ -13803,7 +13803,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407411</v>
+        <v>692523.611111111</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -13812,13 +13812,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1615888.425925926</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2186916.666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -13934,7 +13934,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1718.095238095237</v>
+        <v>1718.095238095238</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -13959,7 +13959,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>859.0476190476187</v>
+        <v>859.0476190476188</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -14034,7 +14034,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>4832.142857142856</v>
+        <v>4832.142857142857</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -14153,22 +14153,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16031.97619047621</v>
+        <v>16031.97619047619</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>107.3809523809454</v>
+        <v>107.3809523809523</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13100.47619047617</v>
+        <v>13100.47619047619</v>
       </c>
       <c r="G20" t="n">
-        <v>3511.3571428571</v>
+        <v>3511.357142857141</v>
       </c>
     </row>
     <row r="21">
@@ -14184,7 +14184,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2899.285714285713</v>
+        <v>2899.285714285714</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -14259,7 +14259,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>4724.761904761903</v>
+        <v>4724.761904761904</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -14328,22 +14328,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1603.197619047621</v>
+        <v>1603.197619047619</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>10.73809523809454</v>
+        <v>10.73809523809523</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1310.047619047617</v>
+        <v>1310.047619047619</v>
       </c>
       <c r="G27" t="n">
-        <v>351.13571428571</v>
+        <v>351.1357142857141</v>
       </c>
     </row>
     <row r="28">
@@ -14353,22 +14353,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8015.988095238103</v>
+        <v>8015.988095238095</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>53.69047619047274</v>
+        <v>53.69047619047617</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6550.238095238083</v>
+        <v>6550.238095238095</v>
       </c>
       <c r="G28" t="n">
-        <v>1755.67857142855</v>
+        <v>1755.67857142857</v>
       </c>
     </row>
     <row r="29">
@@ -14807,10 +14807,10 @@
         <v>635096.2962962962</v>
       </c>
       <c r="C2" t="n">
-        <v>952644.4444444441</v>
+        <v>952644.444444444</v>
       </c>
       <c r="D2" t="n">
-        <v>4763222.222222221</v>
+        <v>4763222.22222222</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -14832,10 +14832,10 @@
         <v>635096.2962962962</v>
       </c>
       <c r="C3" t="n">
-        <v>952644.4444444441</v>
+        <v>952644.4444444383</v>
       </c>
       <c r="D3" t="n">
-        <v>4763222.222222221</v>
+        <v>4763222.22222222</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -14844,7 +14844,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5.682522896677256e-09</v>
       </c>
     </row>
     <row r="4">
@@ -14904,13 +14904,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194392.5925925926</v>
+        <v>179813.1481481481</v>
       </c>
       <c r="C6" t="n">
-        <v>291588.8888888888</v>
+        <v>269719.7222222222</v>
       </c>
       <c r="D6" t="n">
-        <v>1457944.444444444</v>
+        <v>1348598.611111111</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -15032,7 +15032,7 @@
         <v>156346.6666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>180399.9999999999</v>
+        <v>180400.0000000006</v>
       </c>
       <c r="D11" t="n">
         <v>24053.33333333333</v>
@@ -15044,7 +15044,7 @@
         <v>240533.3333333333</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.839077123186805e-10</v>
       </c>
     </row>
     <row r="12">
@@ -15057,7 +15057,7 @@
         <v>78173.33333333333</v>
       </c>
       <c r="C12" t="n">
-        <v>90199.99999999997</v>
+        <v>90200.00000000028</v>
       </c>
       <c r="D12" t="n">
         <v>12026.66666666667</v>
@@ -15069,7 +15069,7 @@
         <v>120266.6666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-3.055902197957039e-10</v>
       </c>
     </row>
     <row r="13">
@@ -15082,7 +15082,7 @@
         <v>127031.6666666667</v>
       </c>
       <c r="C13" t="n">
-        <v>146575</v>
+        <v>146575.0000000005</v>
       </c>
       <c r="D13" t="n">
         <v>19543.33333333333</v>
@@ -15094,7 +15094,7 @@
         <v>195433.3333333333</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-4.94765117764473e-10</v>
       </c>
     </row>
     <row r="14">
@@ -15107,7 +15107,7 @@
         <v>87945</v>
       </c>
       <c r="C14" t="n">
-        <v>101475</v>
+        <v>101475.0000000003</v>
       </c>
       <c r="D14" t="n">
         <v>13530</v>
@@ -15119,7 +15119,7 @@
         <v>135300</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.492459654808044e-10</v>
       </c>
     </row>
     <row r="15">
@@ -15207,7 +15207,7 @@
         <v>97716.66666666666</v>
       </c>
       <c r="C18" t="n">
-        <v>112750</v>
+        <v>112750.0000000003</v>
       </c>
       <c r="D18" t="n">
         <v>15033.33333333333</v>
@@ -15219,7 +15219,7 @@
         <v>150333.3333333333</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-3.783497959375381e-10</v>
       </c>
     </row>
     <row r="19">
@@ -15232,7 +15232,7 @@
         <v>508126.6666666666</v>
       </c>
       <c r="C19" t="n">
-        <v>586299.9999999999</v>
+        <v>586300.0000000019</v>
       </c>
       <c r="D19" t="n">
         <v>78173.33333333333</v>
@@ -15244,7 +15244,7 @@
         <v>781733.3333333333</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.979060471057892e-09</v>
       </c>
     </row>
     <row r="20">
@@ -15332,7 +15332,7 @@
         <v>68401.66666666666</v>
       </c>
       <c r="C23" t="n">
-        <v>78924.99999999999</v>
+        <v>78925.00000000025</v>
       </c>
       <c r="D23" t="n">
         <v>10523.33333333333</v>
@@ -15344,7 +15344,7 @@
         <v>105233.3333333333</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-2.619344741106033e-10</v>
       </c>
     </row>
     <row r="24">
@@ -15407,7 +15407,7 @@
         <v>195433.3333333333</v>
       </c>
       <c r="C26" t="n">
-        <v>225499.9999999999</v>
+        <v>225500.0000000007</v>
       </c>
       <c r="D26" t="n">
         <v>30066.66666666666</v>
@@ -15419,7 +15419,7 @@
         <v>300666.6666666666</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-7.566995918750763e-10</v>
       </c>
     </row>
     <row r="27">
@@ -15482,7 +15482,7 @@
         <v>117260</v>
       </c>
       <c r="C29" t="n">
-        <v>135300</v>
+        <v>135300.0000000004</v>
       </c>
       <c r="D29" t="n">
         <v>18040</v>
@@ -15494,7 +15494,7 @@
         <v>180400</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-4.365574568510056e-10</v>
       </c>
     </row>
     <row r="30">
@@ -15507,7 +15507,7 @@
         <v>29315</v>
       </c>
       <c r="C30" t="n">
-        <v>33824.99999999999</v>
+        <v>33825.0000000001</v>
       </c>
       <c r="D30" t="n">
         <v>4510</v>
@@ -15519,7 +15519,7 @@
         <v>45099.99999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>-1.091393642127514e-10</v>
       </c>
     </row>
     <row r="31">
@@ -15908,10 +15908,10 @@
         <v>635096.2962962962</v>
       </c>
       <c r="C2" t="n">
-        <v>952644.4444444441</v>
+        <v>952644.444444444</v>
       </c>
       <c r="D2" t="n">
-        <v>4763222.222222221</v>
+        <v>4763222.22222222</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -15933,10 +15933,10 @@
         <v>635096.2962962962</v>
       </c>
       <c r="C3" t="n">
-        <v>952644.4444444441</v>
+        <v>952644.444444444</v>
       </c>
       <c r="D3" t="n">
-        <v>4763222.222222221</v>
+        <v>4763222.22222222</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -16005,13 +16005,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194392.5925925926</v>
+        <v>179813.1481481481</v>
       </c>
       <c r="C6" t="n">
-        <v>291588.8888888888</v>
+        <v>269719.7222222222</v>
       </c>
       <c r="D6" t="n">
-        <v>1457944.444444444</v>
+        <v>1348598.611111111</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -16133,7 +16133,7 @@
         <v>156346.6666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>180399.9999999999</v>
+        <v>180400.0000000006</v>
       </c>
       <c r="D11" t="n">
         <v>24053.33333333333</v>
@@ -16145,7 +16145,7 @@
         <v>240533.3333333333</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.839077123186805e-10</v>
       </c>
     </row>
     <row r="12">
@@ -16158,7 +16158,7 @@
         <v>78173.33333333333</v>
       </c>
       <c r="C12" t="n">
-        <v>90199.99999999997</v>
+        <v>90200.00000000028</v>
       </c>
       <c r="D12" t="n">
         <v>12026.66666666667</v>
@@ -16170,7 +16170,7 @@
         <v>120266.6666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-3.055902197957039e-10</v>
       </c>
     </row>
     <row r="13">
@@ -16183,7 +16183,7 @@
         <v>127031.6666666667</v>
       </c>
       <c r="C13" t="n">
-        <v>146575</v>
+        <v>146575.0000000005</v>
       </c>
       <c r="D13" t="n">
         <v>19543.33333333333</v>
@@ -16195,7 +16195,7 @@
         <v>195433.3333333333</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-4.94765117764473e-10</v>
       </c>
     </row>
     <row r="14">
@@ -16208,7 +16208,7 @@
         <v>87945</v>
       </c>
       <c r="C14" t="n">
-        <v>101475</v>
+        <v>101475.0000000003</v>
       </c>
       <c r="D14" t="n">
         <v>13530</v>
@@ -16220,7 +16220,7 @@
         <v>135300</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.492459654808044e-10</v>
       </c>
     </row>
     <row r="15">
@@ -16308,7 +16308,7 @@
         <v>97716.66666666666</v>
       </c>
       <c r="C18" t="n">
-        <v>112750</v>
+        <v>112750.0000000003</v>
       </c>
       <c r="D18" t="n">
         <v>15033.33333333333</v>
@@ -16320,7 +16320,7 @@
         <v>150333.3333333333</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-3.783497959375381e-10</v>
       </c>
     </row>
     <row r="19">
@@ -16330,22 +16330,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>508126.6666666666</v>
+        <v>508126.6666666738</v>
       </c>
       <c r="C19" t="n">
-        <v>586299.9999999999</v>
+        <v>586300.0000000019</v>
       </c>
       <c r="D19" t="n">
-        <v>78173.33333333333</v>
+        <v>78173.33333333443</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>781733.3333333333</v>
+        <v>781733.3333333443</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>6.322807166725397e-09</v>
       </c>
     </row>
     <row r="20">
@@ -16383,7 +16383,7 @@
         <v>263835</v>
       </c>
       <c r="C21" t="n">
-        <v>304424.9999999999</v>
+        <v>304425.0000000009</v>
       </c>
       <c r="D21" t="n">
         <v>40589.99999999999</v>
@@ -16395,7 +16395,7 @@
         <v>405899.9999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>-9.895302355289459e-10</v>
       </c>
     </row>
     <row r="22">
@@ -16433,7 +16433,7 @@
         <v>68401.66666666666</v>
       </c>
       <c r="C23" t="n">
-        <v>78924.99999999999</v>
+        <v>78925.00000000025</v>
       </c>
       <c r="D23" t="n">
         <v>10523.33333333333</v>
@@ -16445,7 +16445,7 @@
         <v>105233.3333333333</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-2.619344741106033e-10</v>
       </c>
     </row>
     <row r="24">
@@ -16458,7 +16458,7 @@
         <v>429953.3333333333</v>
       </c>
       <c r="C24" t="n">
-        <v>496099.9999999999</v>
+        <v>496100.0000000015</v>
       </c>
       <c r="D24" t="n">
         <v>66146.66666666666</v>
@@ -16470,7 +16470,7 @@
         <v>661466.6666666666</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>-1.629814505577087e-09</v>
       </c>
     </row>
     <row r="25">
@@ -16508,7 +16508,7 @@
         <v>195433.3333333333</v>
       </c>
       <c r="C26" t="n">
-        <v>225499.9999999999</v>
+        <v>225500.0000000007</v>
       </c>
       <c r="D26" t="n">
         <v>30066.66666666666</v>
@@ -16520,7 +16520,7 @@
         <v>300666.6666666666</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-7.566995918750763e-10</v>
       </c>
     </row>
     <row r="27">
@@ -16583,7 +16583,7 @@
         <v>117260</v>
       </c>
       <c r="C29" t="n">
-        <v>135300</v>
+        <v>135300.0000000004</v>
       </c>
       <c r="D29" t="n">
         <v>18040</v>
@@ -16595,7 +16595,7 @@
         <v>180400</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-4.365574568510056e-10</v>
       </c>
     </row>
     <row r="30">
@@ -16608,7 +16608,7 @@
         <v>29315</v>
       </c>
       <c r="C30" t="n">
-        <v>33824.99999999999</v>
+        <v>33825.0000000001</v>
       </c>
       <c r="D30" t="n">
         <v>4510</v>
@@ -16620,7 +16620,7 @@
         <v>45099.99999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>-1.091393642127514e-10</v>
       </c>
     </row>
     <row r="31">
@@ -17006,13 +17006,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>635096.2962962963</v>
+        <v>635096.2962962962</v>
       </c>
       <c r="C2" t="n">
         <v>952644.4444444441</v>
       </c>
       <c r="D2" t="n">
-        <v>4763222.222222221</v>
+        <v>4763222.22222222</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -17031,13 +17031,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>635096.2962962963</v>
+        <v>691727.6117965728</v>
       </c>
       <c r="C3" t="n">
-        <v>952644.4444444441</v>
+        <v>1037591.417694859</v>
       </c>
       <c r="D3" t="n">
-        <v>4763222.222222221</v>
+        <v>5187957.088474295</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -17056,13 +17056,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>710184.4222222227</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
-        <v>1065276.633333334</v>
+        <v>1190805.555555555</v>
       </c>
       <c r="D4" t="n">
-        <v>5326383.166666669</v>
+        <v>5954027.777777777</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -17106,13 +17106,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407407</v>
+        <v>186885.2667219458</v>
       </c>
       <c r="C6" t="n">
-        <v>364486.111111111</v>
+        <v>280327.9000829186</v>
       </c>
       <c r="D6" t="n">
-        <v>1822430.555555555</v>
+        <v>1401639.500414593</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -17209,7 +17209,7 @@
         <v>1533400</v>
       </c>
       <c r="C10" t="n">
-        <v>270599.9999999999</v>
+        <v>270599.9999999997</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -17359,7 +17359,7 @@
         <v>1226720</v>
       </c>
       <c r="C16" t="n">
-        <v>216479.9999999999</v>
+        <v>216479.9999999998</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -17381,10 +17381,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>460019.9999999999</v>
+        <v>460020.0000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>81179.99999999997</v>
+        <v>81179.99999999991</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -17506,10 +17506,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>306679.9999999999</v>
+        <v>306680</v>
       </c>
       <c r="C22" t="n">
-        <v>54119.99999999997</v>
+        <v>54119.99999999994</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -17581,7 +17581,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>567358</v>
+        <v>567358.0000000001</v>
       </c>
       <c r="C25" t="n">
         <v>100121.9999999999</v>
@@ -17731,10 +17731,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>414017.9999999999</v>
+        <v>414018</v>
       </c>
       <c r="C31" t="n">
-        <v>73061.99999999997</v>
+        <v>73061.99999999991</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -17756,10 +17756,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>92003.99999999999</v>
+        <v>92004</v>
       </c>
       <c r="C32" t="n">
-        <v>16235.99999999999</v>
+        <v>16235.99999999998</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -17806,19 +17806,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.44444444498</v>
+        <v>93644.44444444451</v>
       </c>
       <c r="C34" t="n">
-        <v>86955.55555555606</v>
+        <v>86955.55555555562</v>
       </c>
       <c r="D34" t="n">
-        <v>86955.55555555606</v>
+        <v>86955.55555555562</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>401333.3333333355</v>
+        <v>401333.3333333335</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -17831,19 +17831,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777822</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222264</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222264</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333352</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -17856,19 +17856,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.77777777822</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C36" t="n">
-        <v>73912.22222222264</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D36" t="n">
-        <v>73912.22222222264</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>341133.3333333352</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -17881,19 +17881,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187288.88888889</v>
+        <v>187288.888888889</v>
       </c>
       <c r="C37" t="n">
-        <v>173911.1111111121</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="D37" t="n">
-        <v>173911.1111111121</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>802666.6666666711</v>
+        <v>802666.6666666671</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -17931,19 +17931,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.77777777822</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222264</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D39" t="n">
-        <v>73912.22222222264</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>341133.3333333352</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -17981,19 +17981,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79597.77777777822</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222264</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D41" t="n">
-        <v>73912.22222222264</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>341133.3333333352</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -18006,19 +18006,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79597.77777777822</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C42" t="n">
-        <v>73912.22222222264</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D42" t="n">
-        <v>73912.22222222264</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>341133.3333333352</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -18031,19 +18031,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79597.77777777822</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C43" t="n">
-        <v>73912.22222222264</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D43" t="n">
-        <v>73912.22222222264</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>341133.3333333352</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -18107,13 +18107,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>635096.2962962963</v>
+        <v>635096.2962962962</v>
       </c>
       <c r="C2" t="n">
         <v>952644.4444444441</v>
       </c>
       <c r="D2" t="n">
-        <v>4763222.222222221</v>
+        <v>4763222.22222222</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -18132,13 +18132,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>635096.2962962963</v>
+        <v>691727.6117965728</v>
       </c>
       <c r="C3" t="n">
-        <v>952644.4444444441</v>
+        <v>1037591.417694859</v>
       </c>
       <c r="D3" t="n">
-        <v>4763222.222222221</v>
+        <v>5187957.088474295</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -18157,13 +18157,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>710184.4222222227</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C4" t="n">
-        <v>1065276.633333334</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D4" t="n">
-        <v>5326383.166666669</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -18207,13 +18207,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407407</v>
+        <v>186885.2667219458</v>
       </c>
       <c r="C6" t="n">
-        <v>2186916.666666666</v>
+        <v>280327.9000829186</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1401639.500414593</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -18310,7 +18310,7 @@
         <v>1533400</v>
       </c>
       <c r="C10" t="n">
-        <v>270599.9999999999</v>
+        <v>270599.9999999997</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -18410,7 +18410,7 @@
         <v>138006</v>
       </c>
       <c r="C14" t="n">
-        <v>24353.99999999999</v>
+        <v>24353.99999999997</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -18460,7 +18460,7 @@
         <v>1226720</v>
       </c>
       <c r="C16" t="n">
-        <v>216479.9999999999</v>
+        <v>216479.9999999998</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -18482,10 +18482,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>460019.9999999999</v>
+        <v>460020.0000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>81179.99999999997</v>
+        <v>81179.99999999991</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -18510,7 +18510,7 @@
         <v>153340</v>
       </c>
       <c r="C18" t="n">
-        <v>27059.99999999999</v>
+        <v>27059.99999999997</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -18607,10 +18607,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>306679.9999999999</v>
+        <v>306680</v>
       </c>
       <c r="C22" t="n">
-        <v>54119.99999999997</v>
+        <v>54119.99999999994</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -18635,7 +18635,7 @@
         <v>107338</v>
       </c>
       <c r="C23" t="n">
-        <v>18941.99999999999</v>
+        <v>18941.99999999998</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -18682,7 +18682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>567358</v>
+        <v>567358.0000000001</v>
       </c>
       <c r="C25" t="n">
         <v>100121.9999999999</v>
@@ -18785,7 +18785,7 @@
         <v>184008</v>
       </c>
       <c r="C29" t="n">
-        <v>32471.99999999999</v>
+        <v>32471.99999999996</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -18807,10 +18807,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>46001.99999999999</v>
+        <v>46002</v>
       </c>
       <c r="C30" t="n">
-        <v>8117.999999999996</v>
+        <v>8117.999999999989</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -18832,10 +18832,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>414017.9999999999</v>
+        <v>414018</v>
       </c>
       <c r="C31" t="n">
-        <v>73061.99999999997</v>
+        <v>73061.99999999991</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -18857,10 +18857,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>92003.99999999999</v>
+        <v>92004</v>
       </c>
       <c r="C32" t="n">
-        <v>16235.99999999999</v>
+        <v>16235.99999999998</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -18907,19 +18907,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.44444444445</v>
+        <v>93644.4444444445</v>
       </c>
       <c r="C34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555562</v>
       </c>
       <c r="D34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555562</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>401333.3333333333</v>
+        <v>401333.3333333335</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -18932,19 +18932,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -18957,19 +18957,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C36" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D36" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -18982,19 +18982,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187288.8888888889</v>
+        <v>187288.888888889</v>
       </c>
       <c r="C37" t="n">
-        <v>173911.1111111111</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="D37" t="n">
-        <v>173911.1111111111</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>802666.6666666666</v>
+        <v>802666.6666666671</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -19032,19 +19032,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D39" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -19082,19 +19082,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D41" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -19107,19 +19107,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C42" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D42" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -19132,19 +19132,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C43" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D43" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -19208,13 +19208,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>719838.8044444444</v>
+        <v>635096.2962962962</v>
       </c>
       <c r="C2" t="n">
-        <v>1079758.206666666</v>
+        <v>952644.4444444441</v>
       </c>
       <c r="D2" t="n">
-        <v>5398791.033333332</v>
+        <v>4763222.22222222</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -19233,13 +19233,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703702</v>
+        <v>691727.6117965728</v>
       </c>
       <c r="C3" t="n">
-        <v>1190805.555555555</v>
+        <v>1037591.417694859</v>
       </c>
       <c r="D3" t="n">
-        <v>5954027.777777778</v>
+        <v>5187957.088474295</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -19258,10 +19258,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -19308,13 +19308,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407407</v>
+        <v>186885.2667219458</v>
       </c>
       <c r="C6" t="n">
-        <v>2186916.666666666</v>
+        <v>280327.9000829186</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1401639.500414593</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -19411,7 +19411,7 @@
         <v>1533400</v>
       </c>
       <c r="C10" t="n">
-        <v>270599.9999999999</v>
+        <v>270599.9999999997</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -19511,7 +19511,7 @@
         <v>138006</v>
       </c>
       <c r="C14" t="n">
-        <v>24353.99999999999</v>
+        <v>24353.99999999997</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -19561,7 +19561,7 @@
         <v>1226720</v>
       </c>
       <c r="C16" t="n">
-        <v>216479.9999999999</v>
+        <v>216479.9999999998</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -19583,10 +19583,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>460019.9999999999</v>
+        <v>460020.0000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>81179.99999999997</v>
+        <v>81179.99999999991</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -19611,7 +19611,7 @@
         <v>153340</v>
       </c>
       <c r="C18" t="n">
-        <v>27059.99999999999</v>
+        <v>27059.99999999997</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -19636,7 +19636,7 @@
         <v>797368</v>
       </c>
       <c r="C19" t="n">
-        <v>140711.9999999999</v>
+        <v>140712</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -19645,7 +19645,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>625386.6666666665</v>
+        <v>625386.6666666666</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -19708,10 +19708,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>306679.9999999999</v>
+        <v>306680</v>
       </c>
       <c r="C22" t="n">
-        <v>54119.99999999997</v>
+        <v>54119.99999999994</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -19736,7 +19736,7 @@
         <v>107338</v>
       </c>
       <c r="C23" t="n">
-        <v>18941.99999999999</v>
+        <v>18941.99999999998</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -19783,7 +19783,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>567358</v>
+        <v>567358.0000000001</v>
       </c>
       <c r="C25" t="n">
         <v>100121.9999999999</v>
@@ -19861,7 +19861,7 @@
         <v>7666.999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>1353</v>
+        <v>1352.999999999999</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -19886,7 +19886,7 @@
         <v>184008</v>
       </c>
       <c r="C29" t="n">
-        <v>32471.99999999999</v>
+        <v>32471.99999999996</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -19908,10 +19908,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>46001.99999999999</v>
+        <v>46002</v>
       </c>
       <c r="C30" t="n">
-        <v>8117.999999999996</v>
+        <v>8117.999999999989</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -19933,10 +19933,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>414017.9999999999</v>
+        <v>414018</v>
       </c>
       <c r="C31" t="n">
-        <v>73061.99999999997</v>
+        <v>73061.99999999991</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -19958,10 +19958,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>92003.99999999999</v>
+        <v>92004</v>
       </c>
       <c r="C32" t="n">
-        <v>16235.99999999999</v>
+        <v>16235.99999999998</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -20008,19 +20008,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.44444444445</v>
+        <v>93644.44444444451</v>
       </c>
       <c r="C34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555562</v>
       </c>
       <c r="D34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555562</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>401333.3333333333</v>
+        <v>401333.3333333335</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -20033,19 +20033,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -20058,19 +20058,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C36" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D36" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -20083,19 +20083,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187288.8888888889</v>
+        <v>187288.888888889</v>
       </c>
       <c r="C37" t="n">
-        <v>173911.1111111111</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="D37" t="n">
-        <v>173911.1111111111</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>802666.6666666666</v>
+        <v>802666.6666666671</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -20133,19 +20133,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D39" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -20183,19 +20183,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D41" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -20208,19 +20208,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C42" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D42" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -20233,19 +20233,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C43" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D43" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -20309,13 +20309,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
-        <v>7144833.333333331</v>
+        <v>1190805.555555555</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>5954027.777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -20334,13 +20334,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703703</v>
       </c>
       <c r="C3" t="n">
-        <v>1190805.555555555</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D3" t="n">
-        <v>5954027.777777778</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -20409,13 +20409,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407407</v>
+        <v>186885.2667219458</v>
       </c>
       <c r="C6" t="n">
-        <v>2186916.666666666</v>
+        <v>280327.9000829186</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1401639.500414593</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -20962,10 +20962,10 @@
         <v>8015.988095238095</v>
       </c>
       <c r="C28" t="n">
-        <v>1755.678571428572</v>
+        <v>1755.67857142857</v>
       </c>
       <c r="D28" t="n">
-        <v>53.69047619047632</v>
+        <v>53.69047619047617</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -21109,19 +21109,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.44444444445</v>
+        <v>93644.44444444451</v>
       </c>
       <c r="C34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555562</v>
       </c>
       <c r="D34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555562</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>401333.3333333333</v>
+        <v>401333.3333333335</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -21134,19 +21134,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -21159,19 +21159,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C36" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D36" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -21184,19 +21184,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187288.8888888889</v>
+        <v>187288.888888889</v>
       </c>
       <c r="C37" t="n">
-        <v>173911.1111111111</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="D37" t="n">
-        <v>173911.1111111111</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>802666.6666666666</v>
+        <v>802666.6666666671</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -21234,19 +21234,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D39" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -21284,19 +21284,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D41" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -21309,19 +21309,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C42" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D42" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -21334,19 +21334,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C43" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D43" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -21510,13 +21510,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407407</v>
+        <v>186885.2667219458</v>
       </c>
       <c r="C6" t="n">
-        <v>2186916.666666666</v>
+        <v>280327.9000829186</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1401639.500414593</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22063,10 +22063,10 @@
         <v>8015.988095238095</v>
       </c>
       <c r="C28" t="n">
-        <v>1755.678571428572</v>
+        <v>1755.67857142857</v>
       </c>
       <c r="D28" t="n">
-        <v>53.69047619047632</v>
+        <v>53.69047619047617</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -22210,19 +22210,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.44444444445</v>
+        <v>93644.44444444451</v>
       </c>
       <c r="C34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555562</v>
       </c>
       <c r="D34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555562</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>401333.3333333333</v>
+        <v>401333.3333333335</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -22235,19 +22235,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -22260,19 +22260,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C36" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D36" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -22285,19 +22285,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187288.8888888889</v>
+        <v>187288.888888889</v>
       </c>
       <c r="C37" t="n">
-        <v>173911.1111111111</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="D37" t="n">
-        <v>173911.1111111111</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>802666.6666666666</v>
+        <v>802666.6666666671</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -22335,19 +22335,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D39" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -22385,19 +22385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D41" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -22410,19 +22410,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C42" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D42" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -22435,19 +22435,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C43" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D43" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
